--- a/biology/Botanique/Liste_des_genres_de_Poaceae/Liste_des_genres_de_Poaceae.xlsx
+++ b/biology/Botanique/Liste_des_genres_de_Poaceae/Liste_des_genres_de_Poaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des genres de Poaceae comprend environ 800 genres regroupant environ 12 000 espèces de graminées, parmi lesquelles figurent de nombreuses espèces ayant une grande importance économique, en particulier les céréales, les bambous et de nombreuses espèces de mauvaises herbes.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (21 mai 2010)[1]
-Sommaire :
+          <t>Selon Angiosperm Phylogeny Website                        (21 mai 2010)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
 Haut – A
 B
 C
@@ -809,7 +826,7 @@
 Glyceria
 Glyphochloa
 Gouinia
-Graminidites (genre éteint ; Cf. Paleobiology Database                   (9 avril 2020)[2])
+Graminidites (genre éteint ; Cf. Paleobiology Database                   (9 avril 2020))
 Graphephorum
 Greslania
 Griffithsochloa
